--- a/tests/bin/OpenRefine_exports/2_JR2_18-19.xlsx
+++ b/tests/bin/OpenRefine_exports/2_JR2_18-19.xlsx
@@ -168,7 +168,7 @@
         </is>
       </c>
       <c r="J2" s="1" t="n">
-        <v>43282.208333333336</v>
+        <v>43282.0</v>
       </c>
       <c r="K2" t="n">
         <v>2.0</v>
